--- a/StructureDefinition-svc-bundle-ingested.xlsx
+++ b/StructureDefinition-svc-bundle-ingested.xlsx
@@ -765,7 +765,7 @@
     <t>SVC_Composition_Entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition {http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-pha-composition-ingested}
+    <t xml:space="preserve">Composition {http://fhir.org/guides/who/svc-rc1/StructureDefinition/svc-composition-ingested}
 </t>
   </si>
   <si>
